--- a/server/data/products.xlsx
+++ b/server/data/products.xlsx
@@ -1,44 +1,232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\shree-mahalaxmi\server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69159CB5-D0B0-442F-AFC3-04A4FEBB4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Mahalaxmi</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>50kg Portland Cement</t>
+  </si>
+  <si>
+    <t>High-strength Portland cement suitable for construction and masonry.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1556909215-8b153d7ecf39?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Mild Steel Rod (8mm) - 12ft</t>
+  </si>
+  <si>
+    <t>Hot-rolled mild steel reinforcement bar for structural work.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1549388604-817d15aa0110?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>Power Tool</t>
+  </si>
+  <si>
+    <t>Electric Drill (Cordless)</t>
+  </si>
+  <si>
+    <t>18V cordless drill with two batteries and quick charger.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1581092795363-8c2f5b0f5a7a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Dulux</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Exterior Emulsion Paint (10L)</t>
+  </si>
+  <si>
+    <t>Weather-resistant exterior paint with good coverage and finish.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1532634896-26909d0d4f9a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Galvanized Nails Pack (1kg)</t>
+  </si>
+  <si>
+    <t>Rust-resistant galvanized nails for general carpentry.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1580910051073-0b8d6f1b7c6d?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>AquaFlow</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>PVC Plumbing Pipe (2m)</t>
+  </si>
+  <si>
+    <t>Durable PVC pipe for water supply and drainage (2 meters).</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1581579183540-6f2d3ddf1b9a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>DeWalt</t>
+  </si>
+  <si>
+    <t>Angle Grinder (4-inch)</t>
+  </si>
+  <si>
+    <t>High-speed angle grinder for cutting and grinding.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1597764693853-7f0f4f6c8f1d?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Hand Tool</t>
+  </si>
+  <si>
+    <t>Claw Hammer (16oz)</t>
+  </si>
+  <si>
+    <t>Durable steel hammer with comfortable grip for carpentry.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1555685812-4b943f1e7a97?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Makita</t>
+  </si>
+  <si>
+    <t>Impact Driver</t>
+  </si>
+  <si>
+    <t>Compact impact driver for high torque fastening tasks.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1571171637578-41bc2dd41cd2?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Hand Saw (24in)</t>
+  </si>
+  <si>
+    <t>Carpentry hand saw with hardened teeth for smooth cuts.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1543163521-1bf539c55a19?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Hammer Drill</t>
+  </si>
+  <si>
+    <t>Powerful hammer drill for masonry and concrete drilling.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1602524812334-9b0b1f4a1a1a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Interior Emulsion Paint (5L)</t>
+  </si>
+  <si>
+    <t>Low-odor interior paint with smooth finish.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1505691723518-36a1fb7f2b4b?auto=format&amp;fit=crop&amp;w=800&amp;q=80</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>arch paint</t>
+  </si>
+  <si>
+    <t>paint color</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhIWGBUYGBUVEhUXFxUXFxUYGBUVFhcZHSggGBslGxUVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtKy0wLi0tLS03MCs4Mi0tLS0rKy0vNy4tLS8uLTUvLy0tLS0tLy4tKy0tLTUtLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYEBwIDCAH/xABKEAACAgEBBAUGCgYIBQUAAAABAgADEQQFEiExBhNBUWEiMnGBocEHFCNCUnKRsbLRJCVzgpKzM0NTdKLC0uEVYmO08BY0g4Tx/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAEDBAIFBv/EAC4RAQACAgECAwYFBQAAAAAAAAABAgMRMRIhBAVBEyIyUXHBYZGhsdEGFEKB8P/aAAwDAQACEQMRAD8A3jERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEROu+0KpY8h3c4GLrtoCtlXdJZvUqjvY9g9U5rYxGd5ceA95PumALg9rMM4AUDIIzjjyPiTM4AdwkjHO0E/tGPoX34nE7QHYrn97HvmUdOh5qI+Jp3Y9ZhDF+NMfmfba0+F3PzV9e8ffM0aUd5+0flPoo8T7IEa6ufmp/AT75yrpPai+pAPvkj1XjATx9kJYBqI5IPWo90Ys7FT/ABe4yQC+Psn3cgRytcPmL/HYPznZ19g/qz6rSfvEz9yOrgYI1Tdq2D1KfuJnYNV/zY+spH3gTL6oQKh3QMV9Sw+ifDivt4/dOei1fWZypUg448QfFT2idwqXPIZ78T45AI8JA7YnFHBGRynKAiIgIiICIiAiIgIiICYG27d2pm7Bz9HL3zPmBtrZ3X1NXvshYcHU8VPf4jmMdxkTwQxrjvANW6k94IYETsQ24yQp+0fnNdbA2Rq9HruqsdhVYHIZTmuwjBzg8A2M8MZmxqOsA84N6Rx9n5SI2mXNbm7az6iPficvjWOaOPVn7jPod/og+hv9oN/ejfYPcZKHwa1P+b+Bvyn06tO/2Ee6dY1yfRYfuN+U5fHqu8j9x/ynW0Hx+v6Y+2BtCr+0XP1hOJ2hR2sPWD+U4vr9Pw8tOfgI2OSbTpPK5P41nP8A4jV/aJ/EJxXaGn+mn2icv+JU/THqyfuEbNDbTqAyXGO/BP3CRbdMdKPnWeqi0/cslG2lV3k+itz9yzp+N1dlTn/69n+mRuBH/wDrCg+al7Hw07/5sTt0/SB7DhNJf6XFaL6yXJ9kz01P0aH/AIUX8TCcxfaeVOPrOo/DvTlLjWb+OQi5Pa7PjwwEX75kUq3zyCfBcD7Mn75wC2ntRfUX9vkys9J73FyVAu5ZQRWPnEswyQOzA5nlJlMRtadIfJGOWB7Bid8w9k0OlSrYwLAccDAHco78cszMiOEEREkIiICIiAiIgIiICIiBr/4btS9WzesrdksS+kqykgg5I4Eemay2N8MOvqAFoqvA7XTcc/vJgf4Zsr4dh+qX8LaPxgTzxs/Rvc611rvO3BVyBnAJ5kgcgZpwVrMT1LccRMd259D8ONZ/ptE6/s7Vf2MF++TOl+GXZzecuor+tUp/A5miNdsm6lKrLamRLl36mYDFi8OI+0c+8d8w5f8A2+OeHfs6zw9dbO2nVfUl1ZzXYqupIIJVhkcDxHCZG+veJTuh2tWrZWlsbOFoq4AZLEgKqKO1mYhQO8iSVu3asVYWxjarsqrXlh1ZVbAwzwZWYKR357ph1O+zNpOm2scysfGafpJ9olSv2/QcAdYSes8laLSy9W4SwMoXKkMQOPqzOi/alI85inkdZ8ojJ5HIkbwGSOGRzGRkcRmJifkaldBrKfpp/EJ2DW1djr9olLoYMAwyAQCN5Spwe9W4g+BGZn6dYRM6WgalPpCDqV75G6eZUaR1OduuVewn0CRus6Rhc4rJ9LAe4znqjK3tIydHUa/pffxCBE8cbx9vD2SR6AMbEuusO9abd0u3Ft0V1kKD2DLE4HDjKbqpc/g3H6PZ43N/LrETHZMT3WyIicuiIiAiIgIiICIiAiIgIiIFA+HIfqi769H81ZoboWbBraGqr6xldTuZwGXk6lvm5BIye0ib7+HAfqe/69H89JonoHqtTXraRpbBXdYwqDMoZd1yA28DzHb38Jpw/DK2nEpnpb0i+OaUlKrF066lBRvEFKq00i19SDngx3Q5HLiefGUsTZPwn6u59PVvanQW1dcSPiYIZ33GBe1ckDAAHA/O8JrUTVg+FZj4b66P2Vtodl021dYtm6ACxCqyUWOrMvz/ADOAPI4PMCSd2zNINTXQaA28motVXCvUnlULZhGBwSd1uHaXPzpEdGdKbNBoHRlW2kLYm/5reQ9bI2OIBV24jODg4PIzmm0dz6ldTcK0CVPWiVO9mesZGZ2dkX+zACgd5z2TDM957/NnlFWaKjVUUamqkhOrIShatIcK7AnyblKKQVzwI7ecxwRqn3bKdS5pcV5ZtMopt4N1w6txlwGXiAcAcBknMj0a02o09FGnspU9WoQutwI58wCoPbO/ZOheuzUswGLb+sXBz5PVVrx7jlDImdb/AENo49Iq00y6gra675qwEXrGZWZCd0ED+rY8Ozs7JLa7bFdNIvwXU7u4teC1m95u5yzwy3oBMgtBsS5a9KjBfktVbc/lA+STeUx3/wBInD0zK2ZsF1s3XKnTUi0aYA5I64YO8McOrUui+DTrVUTFVlfbCrp0uVS/WCrq0BAZ2t3erXPIedxPYAT2TP2XtBb6UtUEbw4qeaMCVdG8VYMp8RKzsvYFhXRpc2E01CjFVjqzX7gr3t4AEKqBgOOT1h5Y4zOx9lnTtcFcmmxhYqszu6Ow+Vy7ElgxAbieZaLRXXblzMV0zNQZXNqNzk/qjK5tIytWgtTLx8HI/RWPfa/3KPdKJqTL98Hg/Qx42W/ix7ol3VZoiJy7IiICIiAiIgIiICIiAiIgUT4bh+p9R9aj/uK5oPobp7PjNVyVvYlN2nZxWV3/ACrlVFUEjJZiF7uPGb/+GsfqbVemj/uap516N1s+poqSxqzZdSm+rEFc2rhhjtU4YeIE0YeJWU4lZOnWx9DSofTDV12M5DUaqhkCLgnyGKjOCAMbxODKdNkfCRfv6SortK7VVi2oiq+lVZOt05sSxrAoLZQ4AI7W7VONbTVhmZr3W457N19G6es2dpB1Qs3F3gC27hlD7mDkc2wDnIweUkzoCCR8XY7wQFltwQMopIPHdISmvIHMeuVzYOtddDoqq23HvsSgWcD1e+z+UAe3hgemZuh2qKyLKr9RZV8Yr09iajLHNpIrurY8hwbgM8u3mMep3P1Z5iU3pdO2WDU3KGR1J6zsB31AAUcSSwyPRknljlTkjqtUAWDecWX5UAleK53VOQQe7jI1OkFtyG9rnpqPWioJ1RXKOyqLN7ygTuljkFQAST2TntnpfbVp7Bur8ZrueknmvkBT1ijhkkOgA4cSTjhuxGO0zpMVlO6XUGvKrVawyTvtvZO9utxyv/MV/d44GSJbZt++gZq2rb6LHJEpA2lrNJfUuouW+u1mU4RcLu43yjqoyV3hwPPw4GXtTiRenS5vXSQpnaW4TFpaZLcBk4A72OBK5mIjcquWFrGld1oJOBzPKSms27o1JWy8ZHPDKMeGCcmRqbdNhI0NPLg2ot4Kue4nH2DExX8xw1j3Z39P54bcXl+e/fp1HzntCN2rsq2pA7oQrdvd4HuPgZc/g8/9kn17v5rTN1RCUMbQHrCEvkcxjyvJPOY/QTHxNCowpe8gE5IHXvgE9vDEuw5pyR3jUs816Z5WCIiXBERAREQEREBERAREQERECmfDEM7H1foq9l9ZnmrYnWdfT1P9N1tXV8v6TfXq+fDzsT0z8Li52RrPqL7LEM8zbD1Ar1FFjEqqW1OzKMkBbFYkDtIAM0YeJWU4lf8A4Q9Nfp9DRTbVp2+UUNq9O+8HNCWLVQ6lRuMq2uPEL2cQNbzaGt2fs27S31aXaladdqFv3NUrpuFEsG4vk5yes87ByFA485rfX6TqnKb9b8jvVuHU57iPuODL8M9tO8c9tNpdGdIl+zqq3yAQSCpwystjFXU9jAgEGS+n2LY9lb6nVPetRDVoaq6wHGd133B8owycE957zIfoTYBo6iSAAG4kgAeW3aZNjbumXnqEJ7kD2H/ApHtmHJkikzudOK473tMUiZ+kbd9XRvDP1ZQoxLBLk6xanZ99mrByBlgDjA5DnMizonWaDWWJsNjXG08za3M4zy4LgZ+avE9vzTdIl/q9PqbfEU7i/ax907htfVP5mlrTxtvDEfup+UzX8wpSPiaK+D8RPMa+sxH7sHR9GbDatmpuFnVliiqiIoLNvOd1FUAscEnGT2mWgGVzWbdsoAa/WVVgsECjR2Mpdt7Cnyc/Mbj4T7qdt6xWC40hzyfctX0Hcxx+wyu3mVZmOuJj5cfp3dx4C+XtW9ZmPxnt+n7LS72lWFIVWwccCTnsyfyxKNtSvWu5V0scjmbLBXV6lqL2OPAgSa2Yb9TWtjakmpwCvVDq0YHiCAQGHMc8Sa0OiWqsqueJYnJJJO6O3tPATx58Rj8T4j2cRb15n7en+pW9/B45mtqzbt3iPvP8KtsnoqWKnUBWAOAgQVVrwzwVSXfl89h6JbNNpFUAY4DkMABfqqBhfUJl6ehjk7hADZyRjhu8SJxU8J5/n1fZdFKdomJ2rxeKzZqz7S0y6ulB8mz+63firnd0CH6DT/8AJ7bXnd0pA+KXHHHqyM+BI4Tr6DD9Bo+qx+12M+yp8Lz09EROgiIgIiICIiAiIgIiICIiBVPhVGdk6z9kfYwM8sUcx6R989V/CcM7K1v7B/YJ5TqXJA7yB9svw+qzH6pTaVluN10G7vZD7nHtwN73eEjZJawL1fktZjK+SxyozvYP+EyMmjDPuracNqdCm/RKv3/5jS7aTTLgHByePAke+ULoW/6JV+//ADGl90uoG6PRPkf6kveta9M67y1eX13ezPpoX6I9YzMtMTEpuGJD9NtU66O1q3dHAyGrZ1YcD2oQZ8rgxTny1xzPM63y1ZpmtZn5KX06uts1DoQWqTU0bo3W8nydRk5HZyPpl7twbPFRj7JqzpNtfUrbcF1V6/K0KD8YtAX5K3e+dwGQCfRLhT0gxqXXOQOQOQ2N4jJ3uOc8O8ds+n8z8NeKUivfpj9tKfLI65tEev3WHoXtRKtNotO1ZNjaUOMkgAVrUGBHflxJTVbYusqR9LbQqseFmN4EcfM+kcjx5SPOk37q9TvcEpuTdxz6w1tnOezq/bIHYmoNeyNKw5hFxz4+ecHHZMGLxNrTFqTrcxE6169U8636Q4mns7TuInW+e8dteiS2trfi1T6rVam/UCvdPV1+Qp3nVF4EgEZYcxLBsHaY1Onq1AXcW1QwQtvFQeQJ4ZPqmtelG07dRpb6dzJNekPkq3nNbQd0cePE902F0U0T0aPTU2KVsSpFZTjKtjiDjh2yfOMNK+Hi3+XVrf4alXTPfLf3tccRERH5Q49ILWK6sFiQLnABJIA+KafgB2DLE47yZY+hQ/QdP+zHtJMg+mL0012pneuvffA4eQCtaE+jFQHiSZP9EFxotOP+kn3T66vDz/VMREToIiICIiAiIgIiICIiAiIgVr4SR+qtb/d7fwzylTjtz6u/P/7PWPwhj9V63+73fgM8mocHPdxmjDHaVmNJ6hsVYFiMN4eD8yQCO7JJkbJLU2VmshcErhg2MMSzNvDxABX7JGy/DxK2nDZHQ0/otf7/APMaWzR3nl/lT793MqPQ4/otfpf+Y0s2l5zzs+KmS0xeInv6qeu1ZnpmY+iy6OneGeHrDe5hOW09j131NVaMo3A7gIOPSXnzQ2YXOPJAzkHjnjkAegd/bMg65N3eycZI5ccgZ5egTLXwPh62i1aREx+CbZslo1Np/NB7W6CaC4sSH3nYMxLPjIDAYCnhwYzhquh2lJNnWst5Yln3bWXdJJ3BXvYHMcfCTY1QJAAPEEjh2Ake6dd5lt8EX5mXWHxF8MxNOYnf/fm7dK1CKF60nAx/RN758sfRdWKgjbi+aERVCjBACryHM9kr51eV3ghPLhkA8QCSfRn2R1pxxGD3ZzMuPynw2KeqI+5k8TkyT70sxTpkYslLFsJxstsJ+T3ShxvYBzWhzjjidmq6T38d3dXxxx/39YkYRMe0TZOKk8wpY+rvZ2LOxZicknmZtvouuNHpx/0q/wAImoivGbh6PjGmo/ZV/gEtEhERAREQEREBERAREQEREBERAgenozs3W/3a/wDltPJacxnwnrzpbQbNDqkXznouUek1sBPJFunatijqVdeBUjBE04PWF2JLa0M1JchSoIw+Bk/KMpUH0bp9EhJ3b5xu5O7nOMnGeWcd86mE0Up0xpbrTYfQ4/oqel/xtLNozK90W05TS1A8yC3qZiw9hEsGk5zz7Tu0ss8rXozhOWeB4d/DlO5LsnBQg8TxAwMHHPtz90xqbd1M43iPmggEnuGeE7zqTw8g8SRzGBg4z4jny7pygfHd7Ji3tMi5x3j7ZH6nUqObKPSwgROqsffwAN3hx7eYz292Z9WdWr1aBiCwyOYzxA9H2ThVfkAgMcnsU++TIyzOiwTKA4Tg1YnIwurm3tijGnp/Z1/gE1dRomdgqDJPIf8AnZNr6GrcrRTzVVHDwUCTA74iJIREQEREBERAREQEREBERA+ESkdKegum1I+VpJA822vhbWO7l5SjsyD6O2XiI+iYnTz5tf4INQMtpb67k+i3yb+jPFSfWJHbO+DbUq29qqyqDjur5W94Fh5IHoJz4T0XfoUc5K+V9IEq32jiZjNoHHm2Z8HUH2riWTmvrW3XtLNQtSRwmRoxxE2bboHbz6K38QQfYw98xTsmnt0hH1VH+RpTG4cq2NQi7qvyOMeSx45xzAIHMd2PXOb67T5UkgHB3SVYEcTkDI55zwlkGmpH9VYP3Lfyn016fus/gs/0yRVG1VBPMbyDtVvJAPZkcOYPrmDbbRjgnPuoY8j9X0y8dRpu6z+G3/TOS6LTH+qsb927/aOyGuLGJ4qjnJPDqyp4Y4nex3zu06P/AGZHH5zKOHfhczZNOz6R5ul/iVf8zZmYlJHm1ov/AJ3Ae+EteaXZV7+bWePaEOO35z8O77JJ6Xoex432BRw4E7x+zzQfRmXL4u552H0KAPacn2ztr06jjjj3k5P2mNG0fsvZldQxWhA7Wbz2/IfZ6O2SsRJQREQEREBERAREQEREBERAREQEREBERAREQGIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf//Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,17 +249,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,317 +595,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>brand</v>
-      </c>
-      <c r="C1" t="str">
-        <v>type</v>
-      </c>
-      <c r="D1" t="str">
-        <v>tags</v>
-      </c>
-      <c r="E1" t="str">
-        <v>name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>description</v>
-      </c>
-      <c r="G1" t="str">
-        <v>price</v>
-      </c>
-      <c r="H1" t="str">
-        <v>image</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Mahalaxmi</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Cement</v>
-      </c>
-      <c r="E2" t="str">
-        <v>50kg Portland Cement</v>
-      </c>
-      <c r="F2" t="str">
-        <v>High-strength Portland cement suitable for construction and masonry.</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
       <c r="G2">
         <v>8.5</v>
       </c>
-      <c r="H2" t="str">
-        <v>https://images.unsplash.com/photo-1556909215-8b153d7ecf39?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Mahalaxmi</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Steel</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Mild Steel Rod (8mm) - 12ft</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Hot-rolled mild steel reinforcement bar for structural work.</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
-      <c r="H3" t="str">
-        <v>https://images.unsplash.com/photo-1549388604-817d15aa0110?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Bosch</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Power Tool</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Electric Drill (Cordless)</v>
-      </c>
-      <c r="F4" t="str">
-        <v>18V cordless drill with two batteries and quick charger.</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>79.99</v>
-      </c>
-      <c r="H4" t="str">
-        <v>https://images.unsplash.com/photo-1581092795363-8c2f5b0f5a7a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Dulux</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Paint</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Exterior Emulsion Paint (10L)</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Weather-resistant exterior paint with good coverage and finish.</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5">
         <v>34.5</v>
       </c>
-      <c r="H5" t="str">
-        <v>https://images.unsplash.com/photo-1532634896-26909d0d4f9a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Mahalaxmi</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Fasteners</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Galvanized Nails Pack (1kg)</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Rust-resistant galvanized nails for general carpentry.</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
       <c r="G6">
         <v>2.99</v>
       </c>
-      <c r="H6" t="str">
-        <v>https://images.unsplash.com/photo-1580910051073-0b8d6f1b7c6d?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>AquaFlow</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Plumbing</v>
-      </c>
-      <c r="E7" t="str">
-        <v>PVC Plumbing Pipe (2m)</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Durable PVC pipe for water supply and drainage (2 meters).</v>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7">
         <v>5.25</v>
       </c>
-      <c r="H7" t="str">
-        <v>https://images.unsplash.com/photo-1581579183540-6f2d3ddf1b9a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>DeWalt</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Power Tool</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Angle Grinder (4-inch)</v>
-      </c>
-      <c r="F8" t="str">
-        <v>High-speed angle grinder for cutting and grinding.</v>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
       <c r="G8">
         <v>59.99</v>
       </c>
-      <c r="H8" t="str">
-        <v>https://images.unsplash.com/photo-1597764693853-7f0f4f6c8f1d?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Hand Tool</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Claw Hammer (16oz)</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Durable steel hammer with comfortable grip for carpentry.</v>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
       <c r="G9">
         <v>9.5</v>
       </c>
-      <c r="H9" t="str">
-        <v>https://images.unsplash.com/photo-1555685812-4b943f1e7a97?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Makita</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Power Tool</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Impact Driver</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Compact impact driver for high torque fastening tasks.</v>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
       </c>
       <c r="G10">
         <v>89.99</v>
       </c>
-      <c r="H10" t="str">
-        <v>https://images.unsplash.com/photo-1571171637578-41bc2dd41cd2?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Mahalaxmi</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Tool</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Hand Saw (24in)</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Carpentry hand saw with hardened teeth for smooth cuts.</v>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
       </c>
       <c r="G11">
         <v>12.75</v>
       </c>
-      <c r="H11" t="str">
-        <v>https://images.unsplash.com/photo-1543163521-1bf539c55a19?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Bosch</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Power Tool</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Hammer Drill</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Powerful hammer drill for masonry and concrete drilling.</v>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
       </c>
       <c r="G12">
         <v>129.99</v>
       </c>
-      <c r="H12" t="str">
-        <v>https://images.unsplash.com/photo-1602524812334-9b0b1f4a1a1a?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Dulux</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Paint</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Interior Emulsion Paint (5L)</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Low-odor interior paint with smooth finish.</v>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
       </c>
       <c r="G13">
-        <v>19.99</v>
-      </c>
-      <c r="H13" t="str">
-        <v>https://images.unsplash.com/photo-1505691723518-36a1fb7f2b4b?auto=format&amp;fit=crop&amp;w=800&amp;q=80</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1" display="https://asdasdad.com" xr:uid="{CD529BB8-6C54-4B37-A41A-7ECA01D98BF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError sqref="A1:H13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/products.xlsx
+++ b/server/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\shree-mahalaxmi\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69159CB5-D0B0-442F-AFC3-04A4FEBB4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA31E3E-AE96-4F51-B9C5-033B1F763661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhIWGBUYGBUVEhUXFxUXFxUYGBUVFhcZHSggGBslGxUVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtKy0wLi0tLS03MCs4Mi0tLS0rKy0vNy4tLS8uLTUvLy0tLS0tLy4tKy0tLTUtLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABQYEBwIDCAH/xABKEAACAgEBBAUGCgYIBQUAAAABAgADEQQFEiExBhNBUWEiMnGBocEHFCNCUnKRsbLRJCVzgpKzM0NTdKLC0uEVYmO08BY0g4Tx/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAEDBAIFBv/EAC4RAQACAgECAwYFBQAAAAAAAAABAgMRMRIhBAVBEyIyUXHBYZGhsdEGFEKB8P/aAAwDAQACEQMRAD8A3jERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEROu+0KpY8h3c4GLrtoCtlXdJZvUqjvY9g9U5rYxGd5ceA95PumALg9rMM4AUDIIzjjyPiTM4AdwkjHO0E/tGPoX34nE7QHYrn97HvmUdOh5qI+Jp3Y9ZhDF+NMfmfba0+F3PzV9e8ffM0aUd5+0flPoo8T7IEa6ufmp/AT75yrpPai+pAPvkj1XjATx9kJYBqI5IPWo90Ys7FT/ABe4yQC+Psn3cgRytcPmL/HYPznZ19g/qz6rSfvEz9yOrgYI1Tdq2D1KfuJnYNV/zY+spH3gTL6oQKh3QMV9Sw+ifDivt4/dOei1fWZypUg448QfFT2idwqXPIZ78T45AI8JA7YnFHBGRynKAiIgIiICIiAiIgIiICYG27d2pm7Bz9HL3zPmBtrZ3X1NXvshYcHU8VPf4jmMdxkTwQxrjvANW6k94IYETsQ24yQp+0fnNdbA2Rq9HruqsdhVYHIZTmuwjBzg8A2M8MZmxqOsA84N6Rx9n5SI2mXNbm7az6iPficvjWOaOPVn7jPod/og+hv9oN/ejfYPcZKHwa1P+b+Bvyn06tO/2Ee6dY1yfRYfuN+U5fHqu8j9x/ynW0Hx+v6Y+2BtCr+0XP1hOJ2hR2sPWD+U4vr9Pw8tOfgI2OSbTpPK5P41nP8A4jV/aJ/EJxXaGn+mn2icv+JU/THqyfuEbNDbTqAyXGO/BP3CRbdMdKPnWeqi0/cslG2lV3k+itz9yzp+N1dlTn/69n+mRuBH/wDrCg+al7Hw07/5sTt0/SB7DhNJf6XFaL6yXJ9kz01P0aH/AIUX8TCcxfaeVOPrOo/DvTlLjWb+OQi5Pa7PjwwEX75kUq3zyCfBcD7Mn75wC2ntRfUX9vkys9J73FyVAu5ZQRWPnEswyQOzA5nlJlMRtadIfJGOWB7Bid8w9k0OlSrYwLAccDAHco78cszMiOEEREkIiICIiAiIgIiICIiBr/4btS9WzesrdksS+kqykgg5I4Eemay2N8MOvqAFoqvA7XTcc/vJgf4Zsr4dh+qX8LaPxgTzxs/Rvc611rvO3BVyBnAJ5kgcgZpwVrMT1LccRMd259D8ONZ/ptE6/s7Vf2MF++TOl+GXZzecuor+tUp/A5miNdsm6lKrLamRLl36mYDFi8OI+0c+8d8w5f8A2+OeHfs6zw9dbO2nVfUl1ZzXYqupIIJVhkcDxHCZG+veJTuh2tWrZWlsbOFoq4AZLEgKqKO1mYhQO8iSVu3asVYWxjarsqrXlh1ZVbAwzwZWYKR357ph1O+zNpOm2scysfGafpJ9olSv2/QcAdYSes8laLSy9W4SwMoXKkMQOPqzOi/alI85inkdZ8ojJ5HIkbwGSOGRzGRkcRmJifkaldBrKfpp/EJ2DW1djr9olLoYMAwyAQCN5Spwe9W4g+BGZn6dYRM6WgalPpCDqV75G6eZUaR1OduuVewn0CRus6Rhc4rJ9LAe4znqjK3tIydHUa/pffxCBE8cbx9vD2SR6AMbEuusO9abd0u3Ft0V1kKD2DLE4HDjKbqpc/g3H6PZ43N/LrETHZMT3WyIicuiIiAiIgIiICIiAiIgIiIFA+HIfqi769H81ZoboWbBraGqr6xldTuZwGXk6lvm5BIye0ib7+HAfqe/69H89JonoHqtTXraRpbBXdYwqDMoZd1yA28DzHb38Jpw/DK2nEpnpb0i+OaUlKrF066lBRvEFKq00i19SDngx3Q5HLiefGUsTZPwn6u59PVvanQW1dcSPiYIZ33GBe1ckDAAHA/O8JrUTVg+FZj4b66P2Vtodl021dYtm6ACxCqyUWOrMvz/ADOAPI4PMCSd2zNINTXQaA28motVXCvUnlULZhGBwSd1uHaXPzpEdGdKbNBoHRlW2kLYm/5reQ9bI2OIBV24jODg4PIzmm0dz6ldTcK0CVPWiVO9mesZGZ2dkX+zACgd5z2TDM957/NnlFWaKjVUUamqkhOrIShatIcK7AnyblKKQVzwI7ecxwRqn3bKdS5pcV5ZtMopt4N1w6txlwGXiAcAcBknMj0a02o09FGnspU9WoQutwI58wCoPbO/ZOheuzUswGLb+sXBz5PVVrx7jlDImdb/AENo49Iq00y6gra675qwEXrGZWZCd0ED+rY8Ozs7JLa7bFdNIvwXU7u4teC1m95u5yzwy3oBMgtBsS5a9KjBfktVbc/lA+STeUx3/wBInD0zK2ZsF1s3XKnTUi0aYA5I64YO8McOrUui+DTrVUTFVlfbCrp0uVS/WCrq0BAZ2t3erXPIedxPYAT2TP2XtBb6UtUEbw4qeaMCVdG8VYMp8RKzsvYFhXRpc2E01CjFVjqzX7gr3t4AEKqBgOOT1h5Y4zOx9lnTtcFcmmxhYqszu6Ow+Vy7ElgxAbieZaLRXXblzMV0zNQZXNqNzk/qjK5tIytWgtTLx8HI/RWPfa/3KPdKJqTL98Hg/Qx42W/ix7ol3VZoiJy7IiICIiAiIgIiICIiAiIgUT4bh+p9R9aj/uK5oPobp7PjNVyVvYlN2nZxWV3/ACrlVFUEjJZiF7uPGb/+GsfqbVemj/uap516N1s+poqSxqzZdSm+rEFc2rhhjtU4YeIE0YeJWU4lZOnWx9DSofTDV12M5DUaqhkCLgnyGKjOCAMbxODKdNkfCRfv6SortK7VVi2oiq+lVZOt05sSxrAoLZQ4AI7W7VONbTVhmZr3W457N19G6es2dpB1Qs3F3gC27hlD7mDkc2wDnIweUkzoCCR8XY7wQFltwQMopIPHdISmvIHMeuVzYOtddDoqq23HvsSgWcD1e+z+UAe3hgemZuh2qKyLKr9RZV8Yr09iajLHNpIrurY8hwbgM8u3mMep3P1Z5iU3pdO2WDU3KGR1J6zsB31AAUcSSwyPRknljlTkjqtUAWDecWX5UAleK53VOQQe7jI1OkFtyG9rnpqPWioJ1RXKOyqLN7ygTuljkFQAST2TntnpfbVp7Bur8ZrueknmvkBT1ijhkkOgA4cSTjhuxGO0zpMVlO6XUGvKrVawyTvtvZO9utxyv/MV/d44GSJbZt++gZq2rb6LHJEpA2lrNJfUuouW+u1mU4RcLu43yjqoyV3hwPPw4GXtTiRenS5vXSQpnaW4TFpaZLcBk4A72OBK5mIjcquWFrGld1oJOBzPKSms27o1JWy8ZHPDKMeGCcmRqbdNhI0NPLg2ot4Kue4nH2DExX8xw1j3Z39P54bcXl+e/fp1HzntCN2rsq2pA7oQrdvd4HuPgZc/g8/9kn17v5rTN1RCUMbQHrCEvkcxjyvJPOY/QTHxNCowpe8gE5IHXvgE9vDEuw5pyR3jUs816Z5WCIiXBERAREQEREBERAREQERECmfDEM7H1foq9l9ZnmrYnWdfT1P9N1tXV8v6TfXq+fDzsT0z8Li52RrPqL7LEM8zbD1Ar1FFjEqqW1OzKMkBbFYkDtIAM0YeJWU4lf8A4Q9Nfp9DRTbVp2+UUNq9O+8HNCWLVQ6lRuMq2uPEL2cQNbzaGt2fs27S31aXaladdqFv3NUrpuFEsG4vk5yes87ByFA485rfX6TqnKb9b8jvVuHU57iPuODL8M9tO8c9tNpdGdIl+zqq3yAQSCpwystjFXU9jAgEGS+n2LY9lb6nVPetRDVoaq6wHGd133B8owycE957zIfoTYBo6iSAAG4kgAeW3aZNjbumXnqEJ7kD2H/ApHtmHJkikzudOK473tMUiZ+kbd9XRvDP1ZQoxLBLk6xanZ99mrByBlgDjA5DnMizonWaDWWJsNjXG08za3M4zy4LgZ+avE9vzTdIl/q9PqbfEU7i/ax907htfVP5mlrTxtvDEfup+UzX8wpSPiaK+D8RPMa+sxH7sHR9GbDatmpuFnVliiqiIoLNvOd1FUAscEnGT2mWgGVzWbdsoAa/WVVgsECjR2Mpdt7Cnyc/Mbj4T7qdt6xWC40hzyfctX0Hcxx+wyu3mVZmOuJj5cfp3dx4C+XtW9ZmPxnt+n7LS72lWFIVWwccCTnsyfyxKNtSvWu5V0scjmbLBXV6lqL2OPAgSa2Yb9TWtjakmpwCvVDq0YHiCAQGHMc8Sa0OiWqsqueJYnJJJO6O3tPATx58Rj8T4j2cRb15n7en+pW9/B45mtqzbt3iPvP8KtsnoqWKnUBWAOAgQVVrwzwVSXfl89h6JbNNpFUAY4DkMABfqqBhfUJl6ehjk7hADZyRjhu8SJxU8J5/n1fZdFKdomJ2rxeKzZqz7S0y6ulB8mz+63firnd0CH6DT/8AJ7bXnd0pA+KXHHHqyM+BI4Tr6DD9Bo+qx+12M+yp8Lz09EROgiIgIiICIiAiIgIiICIiBVPhVGdk6z9kfYwM8sUcx6R989V/CcM7K1v7B/YJ5TqXJA7yB9svw+qzH6pTaVluN10G7vZD7nHtwN73eEjZJawL1fktZjK+SxyozvYP+EyMmjDPuracNqdCm/RKv3/5jS7aTTLgHByePAke+ULoW/6JV+//ADGl90uoG6PRPkf6kveta9M67y1eX13ezPpoX6I9YzMtMTEpuGJD9NtU66O1q3dHAyGrZ1YcD2oQZ8rgxTny1xzPM63y1ZpmtZn5KX06uts1DoQWqTU0bo3W8nydRk5HZyPpl7twbPFRj7JqzpNtfUrbcF1V6/K0KD8YtAX5K3e+dwGQCfRLhT0gxqXXOQOQOQ2N4jJ3uOc8O8ds+n8z8NeKUivfpj9tKfLI65tEev3WHoXtRKtNotO1ZNjaUOMkgAVrUGBHflxJTVbYusqR9LbQqseFmN4EcfM+kcjx5SPOk37q9TvcEpuTdxz6w1tnOezq/bIHYmoNeyNKw5hFxz4+ecHHZMGLxNrTFqTrcxE6169U8636Q4mns7TuInW+e8dteiS2trfi1T6rVam/UCvdPV1+Qp3nVF4EgEZYcxLBsHaY1Onq1AXcW1QwQtvFQeQJ4ZPqmtelG07dRpb6dzJNekPkq3nNbQd0cePE902F0U0T0aPTU2KVsSpFZTjKtjiDjh2yfOMNK+Hi3+XVrf4alXTPfLf3tccRERH5Q49ILWK6sFiQLnABJIA+KafgB2DLE47yZY+hQ/QdP+zHtJMg+mL0012pneuvffA4eQCtaE+jFQHiSZP9EFxotOP+kn3T66vDz/VMREToIiICIiAiIgIiICIiAiIgVr4SR+qtb/d7fwzylTjtz6u/P/7PWPwhj9V63+73fgM8mocHPdxmjDHaVmNJ6hsVYFiMN4eD8yQCO7JJkbJLU2VmshcErhg2MMSzNvDxABX7JGy/DxK2nDZHQ0/otf7/APMaWzR3nl/lT793MqPQ4/otfpf+Y0s2l5zzs+KmS0xeInv6qeu1ZnpmY+iy6OneGeHrDe5hOW09j131NVaMo3A7gIOPSXnzQ2YXOPJAzkHjnjkAegd/bMg65N3eycZI5ccgZ5egTLXwPh62i1aREx+CbZslo1Np/NB7W6CaC4sSH3nYMxLPjIDAYCnhwYzhquh2lJNnWst5Yln3bWXdJJ3BXvYHMcfCTY1QJAAPEEjh2Ake6dd5lt8EX5mXWHxF8MxNOYnf/fm7dK1CKF60nAx/RN758sfRdWKgjbi+aERVCjBACryHM9kr51eV3ghPLhkA8QCSfRn2R1pxxGD3ZzMuPynw2KeqI+5k8TkyT70sxTpkYslLFsJxstsJ+T3ShxvYBzWhzjjidmq6T38d3dXxxx/39YkYRMe0TZOKk8wpY+rvZ2LOxZicknmZtvouuNHpx/0q/wAImoivGbh6PjGmo/ZV/gEtEhERAREQEREBERAREQEREBERAgenozs3W/3a/wDltPJacxnwnrzpbQbNDqkXznouUek1sBPJFunatijqVdeBUjBE04PWF2JLa0M1JchSoIw+Bk/KMpUH0bp9EhJ3b5xu5O7nOMnGeWcd86mE0Up0xpbrTYfQ4/oqel/xtLNozK90W05TS1A8yC3qZiw9hEsGk5zz7Tu0ss8rXozhOWeB4d/DlO5LsnBQg8TxAwMHHPtz90xqbd1M43iPmggEnuGeE7zqTw8g8SRzGBg4z4jny7pygfHd7Ji3tMi5x3j7ZH6nUqObKPSwgROqsffwAN3hx7eYz292Z9WdWr1aBiCwyOYzxA9H2ThVfkAgMcnsU++TIyzOiwTKA4Tg1YnIwurm3tijGnp/Z1/gE1dRomdgqDJPIf8AnZNr6GrcrRTzVVHDwUCTA74iJIREQEREBERAREQEREBERA+ESkdKegum1I+VpJA822vhbWO7l5SjsyD6O2XiI+iYnTz5tf4INQMtpb67k+i3yb+jPFSfWJHbO+DbUq29qqyqDjur5W94Fh5IHoJz4T0XfoUc5K+V9IEq32jiZjNoHHm2Z8HUH2riWTmvrW3XtLNQtSRwmRoxxE2bboHbz6K38QQfYw98xTsmnt0hH1VH+RpTG4cq2NQi7qvyOMeSx45xzAIHMd2PXOb67T5UkgHB3SVYEcTkDI55zwlkGmpH9VYP3Lfyn016fus/gs/0yRVG1VBPMbyDtVvJAPZkcOYPrmDbbRjgnPuoY8j9X0y8dRpu6z+G3/TOS6LTH+qsb927/aOyGuLGJ4qjnJPDqyp4Y4nex3zu06P/AGZHH5zKOHfhczZNOz6R5ul/iVf8zZmYlJHm1ov/AJ3Ae+EteaXZV7+bWePaEOO35z8O77JJ6Xoex432BRw4E7x+zzQfRmXL4u552H0KAPacn2ztr06jjjj3k5P2mNG0fsvZldQxWhA7Wbz2/IfZ6O2SsRJQREQEREBERAREQEREBERAREQEREBERAREQGIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgf//Z</t>
+  </si>
+  <si>
+    <t>PaintX</t>
   </si>
 </sst>
 </file>
@@ -599,12 +602,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -653,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -676,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -699,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -722,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -745,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -768,7 +771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -791,7 +794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -814,7 +817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -837,7 +840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -860,7 +863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -883,7 +886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -906,7 +909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -914,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
